--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,15 +55,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -76,45 +76,51 @@
     <t>support</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
@@ -124,13 +130,16 @@
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4232804232804233</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3352713178294573</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +740,13 @@
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -835,13 +844,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7878787878787878</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +870,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +896,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7682926829268293</v>
+        <v>0.765625</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7625</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -991,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7253521126760564</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1052,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7209302325581395</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1182,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6033898305084746</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L23">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="M23">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1208,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5815899581589958</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,25 +1234,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5638297872340425</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1260,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5230769230769231</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5168539325842697</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1322,6 +1331,84 @@
       </c>
       <c r="Q28">
         <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>44</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
